--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3946383.288637056</v>
+        <v>3942050.803816366</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>107.301303802437</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.49513028554884</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>15.72604893648648</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>163.6275024362746</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>29.66898836237987</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>130.8251764553486</v>
       </c>
       <c r="H7" t="n">
-        <v>25.02169492285061</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>139.0763275237597</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>104.8926240901433</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>54.47555601903385</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>54.84205284513758</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.0585636675447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>31.40247677523011</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>75.21356227238276</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>219.9959052902012</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>32.4720786658932</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>177.8809453463113</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.4338103776679</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>77.73359659137272</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576185</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>63.162813017127</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>99.72336853883992</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695533</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>185.8319184229595</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992708</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>72.57619040703456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>105.7906564314218</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1299.526533804879</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>580.2919452781746</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>162.3281371763615</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>162.3281371763615</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2668.36613113383</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.731464105892</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.731464105892</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.731464105892</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2449.731464105892</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>2076.265705844813</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1686.126373869001</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="3">
@@ -4409,10 +4409,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1714.263756178945</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>984.1461433271581</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>625.8804447204077</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>240.0921921221635</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>233.14669137296</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>219.2232873115509</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2491.002928218878</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>2491.002928218878</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>2100.863596243066</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.3338608103785</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>398.3338608103785</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D7" t="n">
-        <v>248.2172213980428</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E7" t="n">
-        <v>248.2172213980428</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F7" t="n">
-        <v>248.2172213980428</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="G7" t="n">
-        <v>79.21742113637518</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>601.0812781421098</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>215.2930255438656</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>208.3475247946621</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>194.424120733253</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>194.424120733253</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2591.196945472624</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2372.562278444686</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2118.800493082778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2118.800493082778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>2118.800493082778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X8" t="n">
-        <v>1745.334734821698</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y8" t="n">
-        <v>1745.334734821698</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810047</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961522</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.53275017731</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2517.442480416597</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2517.442480416597</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>545.3854261579752</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E13" t="n">
-        <v>545.3854261579752</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>398.4954786600648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>231.2993793749447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,25 +5290,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.644930552589</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.243410069927</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2232.388575724832</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684978</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.483279497101</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6068,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3228.447361044447</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>3059.51117811654</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>2909.394538704204</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>2761.481445121811</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>4221.331149328841</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>3966.646661122954</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.229491085994</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>3449.239940187977</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>3228.447361044447</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2864.693115711031</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2864.693115711031</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2714.576476298695</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2566.663382716302</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2419.773435218392</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218392</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4328.300595481467</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4039.225368825665</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3784.540880619778</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3495.123710582818</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3267.134159684801</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3046.341580541271</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6551,16 +6551,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2859.514999370921</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>2859.514999370921</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>2709.398359958586</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E31" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136243</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6785,22 +6785,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>486.4214942667323</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>339.531546768822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>172.3354474837019</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,52 +6928,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2977.325134535464</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C37" t="n">
-        <v>2977.325134535464</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>2977.325134535464</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>2829.412040953071</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650099</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444212</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3607.755729407251</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3379.766178509234</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>3158.973599365704</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7186,28 +7186,28 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516146</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167374</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167374</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.07903472198</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602305</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602305</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1466.014387565344</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1238.024836667327</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159287</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7402,40 +7402,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1360.39208240939</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1132.402531511373</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3301.483384420093</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3132.547201492187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>2982.430562079851</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>4221.331149328841</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3931.91397929188</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3703.924428393863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3483.131849250333</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.066668438154702e-12</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>85.45266000108631</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.7734165143926</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>34.97276993489155</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>210.9709121168614</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>66.52709304638984</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>112.948969357038</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>39.52450498097699</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.3981698042694</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.5688841976867</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>62.56111625485114</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>116.6691671648103</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>45.69767948409132</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.7527349291353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>39.70888054695308</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>213.9468079295564</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>40.64330621514742</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>629808.2225148411</v>
+        <v>629808.222514841</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>629808.222514841</v>
+        <v>629808.2225148411</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>629808.2225148411</v>
+        <v>629808.222514841</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>629808.222514841</v>
+        <v>629808.2225148411</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>629808.2225148411</v>
+        <v>629808.222514841</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.934697756</v>
       </c>
       <c r="I2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
+        <v>786967.9346977553</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
         <v>786967.934697756</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577086</v>
+        <v>944372.7777577089</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080589</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="F4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>5067.592601670438</v>
       </c>
-      <c r="G4" t="n">
-        <v>5067.592601670416</v>
-      </c>
       <c r="H4" t="n">
-        <v>5067.592601670418</v>
+        <v>5067.592601670436</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
+        <v>5067.592601670396</v>
+      </c>
+      <c r="K4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="K4" t="n">
-        <v>5067.592601670438</v>
-      </c>
       <c r="L4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.5926016704</v>
+        <v>5067.592601670329</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670389</v>
+        <v>5067.592601670396</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670365</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73375.73758800924</v>
+        <v>-73375.73758800927</v>
       </c>
       <c r="C6" t="n">
-        <v>516592.1416265353</v>
+        <v>516592.1416265354</v>
       </c>
       <c r="D6" t="n">
         <v>516592.1416265353</v>
       </c>
       <c r="E6" t="n">
-        <v>-263594.9654855304</v>
+        <v>-263942.3447398878</v>
       </c>
       <c r="F6" t="n">
-        <v>680777.812272178</v>
+        <v>680430.4330178213</v>
       </c>
       <c r="G6" t="n">
-        <v>680777.8122721781</v>
+        <v>680430.4330178216</v>
       </c>
       <c r="H6" t="n">
-        <v>680777.8122721786</v>
+        <v>680430.4330178215</v>
       </c>
       <c r="I6" t="n">
-        <v>680777.8122721785</v>
+        <v>680430.4330178215</v>
       </c>
       <c r="J6" t="n">
-        <v>504354.5930795856</v>
+        <v>504007.2138252284</v>
       </c>
       <c r="K6" t="n">
-        <v>680777.8122721785</v>
+        <v>680430.4330178215</v>
       </c>
       <c r="L6" t="n">
-        <v>680777.8122721784</v>
+        <v>680430.4330178213</v>
       </c>
       <c r="M6" t="n">
-        <v>556569.3015641195</v>
+        <v>556221.922309762</v>
       </c>
       <c r="N6" t="n">
-        <v>680777.8122721782</v>
+        <v>680430.4330178213</v>
       </c>
       <c r="O6" t="n">
-        <v>680777.8122721788</v>
+        <v>680430.4330178215</v>
       </c>
       <c r="P6" t="n">
-        <v>680777.8122721782</v>
+        <v>680430.4330178214</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26792,16 +26792,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245868</v>
+        <v>990.2318361245873</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26992,10 +26992,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450932</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.63001244242423</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>145.9205825234227</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>209.9836064525507</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>160.2952703280826</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>319.5719803550331</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>36.48462580370233</v>
       </c>
       <c r="H7" t="n">
-        <v>131.1491939189445</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12.85498872110159</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>69.52308871882828</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>171.2340993700033</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="11">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-6.119210872682379e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-2.390976305832737e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-8.441247700829989e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.533629727958182e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>175.9603676659989</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>520.337216085408</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>504.7812948344581</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N30" t="n">
-        <v>230.1272937575231</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33505,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>579.5299594447131</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33739,31 +33739,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>309.7666854143572</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510266</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,37 +33970,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O39" t="n">
-        <v>301.644515672455</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>328.9038320421819</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>248.0319961154043</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34468,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.97859357997743</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>377.7409716409636</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>362.6472609124398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N30" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>440.9755796648388</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>171.212305634483</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366964</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O39" t="n">
-        <v>159.0482712280106</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38098,16 +38098,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>110.1905571410453</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38116,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3942050.803816366</v>
+        <v>3943811.334119151</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -834,7 +834,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>59.66385641544551</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>170.503548177986</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>163.6275024362746</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>130.8251764553486</v>
+        <v>130.8251764553484</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.40247677523011</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>78.9105100867805</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E31" t="n">
-        <v>19.86507844888251</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576185</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.162813017127</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>100.5858322992708</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>11.56087338713365</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>283.2093037137952</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521276</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4555,10 +4555,10 @@
         <v>240.0921921221635</v>
       </c>
       <c r="F5" t="n">
-        <v>233.14669137296</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>219.2232873115509</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321495</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198137</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374206</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F7" t="n">
-        <v>231.7461491374206</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -5032,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,16 +5129,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D16" t="n">
         <v>484.8112968429802</v>
@@ -5430,10 +5430,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2415.243410069927</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2232.388575724832</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2012.787110747773</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="17">
@@ -5603,16 +5603,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5655,19 +5655,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5889,19 +5889,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6551,13 +6551,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6603,19 +6603,19 @@
         <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978459</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6694,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,10 +6782,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
         <v>716.6687843969308</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,19 +6952,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828446</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>631.7012443408906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7104,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7113,13 +7113,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,49 +7156,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7259,16 +7259,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,40 +7402,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925226</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F43" t="n">
-        <v>444.7013164925226</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G43" t="n">
-        <v>277.5052172074025</v>
+        <v>247.2061440917674</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>105.4943129339655</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,16 +7730,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
         <v>1896.176478190825</v>
@@ -7785,19 +7785,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>142.4141550350967</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.97276993489155</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.4949402405078</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E31" t="n">
-        <v>126.5688841976867</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>116.6691671648103</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>39.70888054695308</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>629808.2225148411</v>
+        <v>629808.222514841</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176763</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="I2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977553</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577089</v>
+        <v>944372.777757709</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080589</v>
+        <v>124208.5107080587</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
@@ -26441,22 +26441,22 @@
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670396</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670329</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670396</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670365</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26524,46 +26524,46 @@
         <v>-73375.73758800927</v>
       </c>
       <c r="C6" t="n">
-        <v>516592.1416265354</v>
+        <v>516592.1416265353</v>
       </c>
       <c r="D6" t="n">
         <v>516592.1416265353</v>
       </c>
       <c r="E6" t="n">
-        <v>-263942.3447398878</v>
+        <v>-263629.7034109663</v>
       </c>
       <c r="F6" t="n">
-        <v>680430.4330178213</v>
+        <v>680743.0743467427</v>
       </c>
       <c r="G6" t="n">
-        <v>680430.4330178216</v>
+        <v>680743.0743467433</v>
       </c>
       <c r="H6" t="n">
-        <v>680430.4330178215</v>
+        <v>680743.0743467427</v>
       </c>
       <c r="I6" t="n">
-        <v>680430.4330178215</v>
+        <v>680743.0743467429</v>
       </c>
       <c r="J6" t="n">
-        <v>504007.2138252284</v>
+        <v>504319.8551541499</v>
       </c>
       <c r="K6" t="n">
-        <v>680430.4330178215</v>
+        <v>680743.0743467424</v>
       </c>
       <c r="L6" t="n">
-        <v>680430.4330178213</v>
+        <v>680743.0743467425</v>
       </c>
       <c r="M6" t="n">
-        <v>556221.922309762</v>
+        <v>556534.5636386838</v>
       </c>
       <c r="N6" t="n">
-        <v>680430.4330178213</v>
+        <v>680743.0743467425</v>
       </c>
       <c r="O6" t="n">
-        <v>680430.4330178215</v>
+        <v>680743.0743467427</v>
       </c>
       <c r="P6" t="n">
-        <v>680430.4330178214</v>
+        <v>680743.0743467425</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26801,7 +26801,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245873</v>
+        <v>990.2318361245874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450932</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>96.50703242634964</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>236.3724975637255</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>160.2952703280826</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>36.48462580370233</v>
+        <v>36.48462580370256</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-6.119210872682379e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-2.390976305832737e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.533629727958182e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31849,7 +31849,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32323,7 +32323,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32335,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -33271,7 +33271,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -33280,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33739,31 +33739,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510266</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33979,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>742.9354859824765</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,10 +35029,10 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789214</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35971,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35983,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366964</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>611.5937738991432</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
